--- a/tut08/score_ind.xlsx
+++ b/tut08/score_ind.xlsx
@@ -476,8 +476,10 @@
           <t xml:space="preserve"> Rohit Sharma(c)</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Rohit c Iftikhar Ahmed b Mohammad Nawaz 12(18)</t>
+        </is>
       </c>
       <c r="C2" t="n">
         <v>12</v>
@@ -501,8 +503,10 @@
           <t xml:space="preserve"> KL Rahul</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Rahul b Naseem Shah 0(1)</t>
+        </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -526,8 +530,10 @@
           <t xml:space="preserve"> Virat Kohli</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Kohli c Iftikhar Ahmed b Mohammad Nawaz 35(34)</t>
+        </is>
       </c>
       <c r="C4" t="n">
         <v>35</v>
@@ -551,8 +557,10 @@
           <t xml:space="preserve"> Suryakumar Yadav</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Suryakumar Yadav b Naseem Shah 18(18)</t>
+        </is>
       </c>
       <c r="C5" t="n">
         <v>18</v>
@@ -576,8 +584,10 @@
           <t xml:space="preserve"> Dinesh Karthik(w)</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>NOT OUT/ DNB</t>
+        </is>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -601,8 +611,10 @@
           <t xml:space="preserve"> Hardik Pandya</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>0</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>NOT OUT/ DNB</t>
+        </is>
       </c>
       <c r="C7" t="n">
         <v>33</v>
@@ -626,8 +638,10 @@
           <t xml:space="preserve"> Ravindra Jadeja</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>0</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jadeja b Mohammad Nawaz 35(29)</t>
+        </is>
       </c>
       <c r="C8" t="n">
         <v>40</v>
@@ -651,8 +665,10 @@
           <t xml:space="preserve"> Bhuvneshwar Kumar</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>0</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>NOT OUT/ DNB</t>
+        </is>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -676,8 +692,10 @@
           <t xml:space="preserve"> Avesh Khan</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>0</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>NOT OUT/ DNB</t>
+        </is>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -701,8 +719,10 @@
           <t xml:space="preserve"> Yuzvendra Chahal</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>0</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>NOT OUT/ DNB</t>
+        </is>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -726,8 +746,10 @@
           <t xml:space="preserve"> Arshdeep Singh</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>0</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>NOT OUT/ DNB</t>
+        </is>
       </c>
       <c r="C12" t="n">
         <v>0</v>
